--- a/Resume Jurnal/perhitungan manual metode forecasting.xlsx
+++ b/Resume Jurnal/perhitungan manual metode forecasting.xlsx
@@ -8,14 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Exponential Smoothing" sheetId="1" r:id="rId1"/>
-    <sheet name="Trend Moment" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Trend Moment" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Bulan</t>
   </si>
@@ -217,6 +219,12 @@
   <si>
     <t>SE</t>
   </si>
+  <si>
+    <t>Single Exponential Smoothing</t>
+  </si>
+  <si>
+    <t>Double Exponential Smoothing</t>
+  </si>
 </sst>
 </file>
 
@@ -226,9 +234,9 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +306,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +346,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -343,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -362,26 +384,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,13 +430,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>51397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -729,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X30"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,893 +774,939 @@
     <col min="14" max="14" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43466</v>
-      </c>
-      <c r="C3">
-        <v>105</v>
-      </c>
-      <c r="D3">
-        <v>105</v>
-      </c>
-      <c r="E3" s="7">
-        <f>C3-D3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <f>ABS(E3)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <f>E3^2</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C4">
+        <v>105</v>
+      </c>
+      <c r="D4">
+        <v>105</v>
+      </c>
+      <c r="E4" s="7">
+        <f>C4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <f>ABS(E4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <f>E4^2</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>43497</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>115</v>
       </c>
-      <c r="D4" s="7">
-        <f>D3+0.9*(C3 - D3)</f>
+      <c r="D5" s="7">
+        <f>D4+0.9*(C4 - D4)</f>
         <v>105</v>
       </c>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E26" si="0">C4-D4</f>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E27" si="0">C5-D5</f>
         <v>10</v>
       </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:F26" si="1">ABS(E4)</f>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F27" si="1">ABS(E5)</f>
         <v>10</v>
       </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G26" si="2">E4^2</f>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G27" si="2">E5^2</f>
         <v>100</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-    </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="I5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>43525</v>
-      </c>
-      <c r="C5">
-        <v>130</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" ref="D5:D30" si="3">D4+0.9*(C4 - D4)</f>
-        <v>114</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43556</v>
       </c>
       <c r="C6">
         <v>130</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="3"/>
-        <v>128.4</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>1.5999999999999943</v>
+        <f t="shared" ref="D6:D28" si="3">D5+0.9*(C5 - D5)</f>
+        <v>114</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="1"/>
-        <v>1.5999999999999943</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>2.5599999999999818</v>
-      </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
+        <v>256</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="C7">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="3"/>
-        <v>129.84</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>-9.8400000000000034</v>
+        <v>128.4</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999943</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>9.8400000000000034</v>
+        <v>1.5999999999999943</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>96.825600000000065</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
+        <v>2.5599999999999818</v>
+      </c>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="C8">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="3"/>
-        <v>120.98399999999999</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>9.0160000000000053</v>
+        <v>129.84</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.8400000000000034</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>9.0160000000000053</v>
+        <v>9.8400000000000034</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="2"/>
-        <v>81.288256000000089</v>
-      </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
+        <v>96.825600000000065</v>
+      </c>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="C9">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="3"/>
-        <v>129.0984</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>10.901600000000002</v>
+        <v>120.98399999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0160000000000053</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>10.901600000000002</v>
+        <v>9.0160000000000053</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>118.84488256000004</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+        <v>81.288256000000089</v>
+      </c>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="C10">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="3"/>
-        <v>138.90984</v>
+        <v>129.0984</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>-23.909840000000003</v>
+        <v>10.901600000000002</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>23.909840000000003</v>
+        <v>10.901600000000002</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>571.68044882560014</v>
-      </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+        <v>118.84488256000004</v>
+      </c>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="C11">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="3"/>
-        <v>117.390984</v>
+        <v>138.90984</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>7.6090159999999969</v>
+        <v>-23.909840000000003</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>7.6090159999999969</v>
+        <v>23.909840000000003</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>57.897124488255955</v>
-      </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+        <v>571.68044882560014</v>
+      </c>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="C12">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="3"/>
-        <v>124.2390984</v>
+        <v>117.390984</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>-4.2390984000000032</v>
+        <v>7.6090159999999969</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>4.2390984000000032</v>
+        <v>7.6090159999999969</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>17.969955244882588</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+        <v>57.897124488255955</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="C13">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="3"/>
-        <v>120.42390983999999</v>
+        <v>124.2390984</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>9.5760901600000068</v>
+        <v>-4.2390984000000032</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>9.5760901600000068</v>
+        <v>4.2390984000000032</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>91.70150275244896</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+        <v>17.969955244882588</v>
+      </c>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="C14">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="3"/>
-        <v>129.04239098400001</v>
+        <v>120.42390983999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>10.957609015999992</v>
+        <v>9.5760901600000068</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>10.957609015999992</v>
+        <v>9.5760901600000068</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>120.06919534752431</v>
-      </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+        <v>91.70150275244896</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="C15">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="3"/>
-        <v>138.90423909840001</v>
+        <v>129.04239098400001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>6.0957609015999878</v>
+        <v>10.957609015999992</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>6.0957609015999878</v>
+        <v>10.957609015999992</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>37.1583009694751</v>
-      </c>
-      <c r="I15" t="s">
-        <v>8</v>
-      </c>
+        <v>120.06919534752431</v>
+      </c>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="C16">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="3"/>
-        <v>144.39042390984</v>
+        <v>138.90423909840001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>10.609576090160004</v>
+        <v>6.0957609015999878</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>10.609576090160004</v>
+        <v>6.0957609015999878</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>112.56310481289485</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="O16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+        <v>37.1583009694751</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43862</v>
+      </c>
+      <c r="C17">
+        <v>155</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="3"/>
+        <v>144.39042390984</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>10.609576090160004</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>10.609576090160004</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>112.56310481289485</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="O17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
         <v>43891</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>170</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="7">
         <f t="shared" si="3"/>
         <v>153.93904239098401</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>16.060957609015986</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="7">
         <f t="shared" si="1"/>
         <v>16.060957609015986</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G18" s="7">
         <f t="shared" si="2"/>
         <v>257.95435931860851</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>43922</v>
-      </c>
-      <c r="C18">
-        <v>160</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="3"/>
-        <v>168.39390423909839</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="0"/>
-        <v>-8.39390423909839</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="1"/>
-        <v>8.39390423909839</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="2"/>
-        <v>70.457628375153917</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="C19">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="3"/>
-        <v>160.83939042390983</v>
+        <v>168.39390423909839</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>14.160609576090167</v>
+        <v>-8.39390423909839</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>14.160609576090167</v>
+        <v>8.39390423909839</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
-        <v>200.52286356645652</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+        <v>70.457628375153917</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="C20">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="3"/>
-        <v>173.58393904239099</v>
+        <v>160.83939042390983</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>16.416060957609005</v>
+        <v>14.160609576090167</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>16.416060957609005</v>
+        <v>14.160609576090167</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>269.4870573639347</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+        <v>200.52286356645652</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43983</v>
+      </c>
+      <c r="C21">
+        <v>190</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="3"/>
+        <v>173.58393904239099</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>16.416060957609005</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="1"/>
+        <v>16.416060957609005</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="2"/>
+        <v>269.4870573639347</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>44013</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>150</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D22" s="7">
         <f t="shared" si="3"/>
         <v>188.35839390423911</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>-38.358393904239108</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <f t="shared" si="1"/>
         <v>38.358393904239108</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G22" s="7">
         <f t="shared" si="2"/>
         <v>1471.3663829127679</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44044</v>
-      </c>
-      <c r="C22">
-        <v>165</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="3"/>
-        <v>153.8358393904239</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="0"/>
-        <v>11.164160609576101</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" si="1"/>
-        <v>11.164160609576101</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" si="2"/>
-        <v>124.63848211641061</v>
-      </c>
-      <c r="I22" t="s">
-        <v>10</v>
-      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="C23">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="3"/>
-        <v>163.88358393904238</v>
+        <v>153.8358393904239</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="0"/>
-        <v>-3.8835839390423814</v>
+        <v>11.164160609576101</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>3.8835839390423814</v>
+        <v>11.164160609576101</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="2"/>
-        <v>15.08222421158794</v>
+        <v>124.63848211641061</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="C24">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="3"/>
-        <v>160.38835839390424</v>
+        <v>163.88358393904238</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="0"/>
-        <v>9.611641606095759</v>
+        <v>-3.8835839390423814</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>9.611641606095759</v>
+        <v>3.8835839390423814</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>92.383654364031059</v>
+        <v>15.08222421158794</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="C25">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D25" s="7">
         <f t="shared" si="3"/>
-        <v>169.03883583939043</v>
+        <v>160.38835839390424</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="0"/>
-        <v>20.96116416060957</v>
+        <v>9.611641606095759</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>20.96116416060957</v>
+        <v>9.611641606095759</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
-        <v>439.37040296802309</v>
+        <v>92.383654364031059</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C26">
+        <v>190</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="3"/>
+        <v>169.03883583939043</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>20.96116416060957</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="1"/>
+        <v>20.96116416060957</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="2"/>
+        <v>439.37040296802309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>44166</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>180</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D27" s="7">
         <f t="shared" si="3"/>
         <v>187.90388358393903</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="5">
         <f t="shared" si="0"/>
         <v>-7.9038835839390345</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="7">
         <f t="shared" si="1"/>
         <v>7.9038835839390345</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G27" s="7">
         <f t="shared" si="2"/>
         <v>62.471375708460954</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
         <v>44197</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="7">
         <f t="shared" si="3"/>
         <v>180.7903883583939</v>
       </c>
-      <c r="E27" s="18">
-        <f>SUM(E3:E26)</f>
+      <c r="E28" s="14">
+        <f>SUM(E4:E27)</f>
         <v>84.211542620437655</v>
       </c>
-      <c r="F27" s="18">
-        <f>SUM(F3:F26)</f>
+      <c r="F28" s="14">
+        <f>SUM(F4:F27)</f>
         <v>277.2689507530755</v>
       </c>
-      <c r="G27" s="19">
-        <f>SUM(G3:G26)</f>
+      <c r="G28" s="15">
+        <f>SUM(G4:G27)</f>
         <v>4668.2928019065166</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H28" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E28" s="21">
-        <f>E27/24</f>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E29" s="17">
+        <f>E28/24</f>
         <v>3.5088142758515688</v>
       </c>
-      <c r="F28" s="21">
-        <f>F27/24</f>
+      <c r="F29" s="17">
+        <f>F28/24</f>
         <v>11.552872948044813</v>
       </c>
-      <c r="G28" s="21">
-        <f>G27/24</f>
+      <c r="G29" s="17">
+        <f>G28/24</f>
         <v>194.5122000794382</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H29" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
         <v>21</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>22</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
         <v>24</v>
       </c>
-      <c r="G30">
-        <f>SQRT(G27/20)</f>
+      <c r="G31">
+        <f>SQRT(G28/20)</f>
         <v>15.27791347322421</v>
       </c>
     </row>
+    <row r="33" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B33" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="O16:S20"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="O5:S14"/>
-    <mergeCell ref="I16:K17"/>
+  <mergeCells count="6">
+    <mergeCell ref="B33:S33"/>
+    <mergeCell ref="O17:S21"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="O6:S15"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="B1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1653,4 +1724,28 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>